--- a/articles/iot-hub/iot-hub-metrics-table.xlsx
+++ b/articles/iot-hub/iot-hub-metrics-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\azure-docs-pr\articles\iot-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F28225-AE20-4D74-A900-5484A62B9E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FB9B79-9A97-4820-8BC1-DFB597EBE10A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25320" yWindow="-15240" windowWidth="18225" windowHeight="11535" xr2:uid="{4D434432-2D31-4BF1-9354-EEB50D7CB4FE}"/>
+    <workbookView xWindow="-2865" yWindow="-15015" windowWidth="18225" windowHeight="11535" xr2:uid="{4D434432-2D31-4BF1-9354-EEB50D7CB4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -762,12 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -777,6 +771,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1095,7 +1095,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7FFFD-ACC2-4C80-8CE9-66F756DD8860}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1167,23 +1169,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -1265,7 +1267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="114" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1325,7 +1327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1364,7 +1366,7 @@
       <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1387,11 +1389,11 @@
       <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1411,7 +1413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1431,7 +1433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1450,7 +1452,7 @@
       <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -1474,7 +1476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
@@ -1533,11 +1535,11 @@
       <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
@@ -1617,7 +1619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
@@ -1658,62 +1660,62 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="178.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="C28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>89</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="7" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="224.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="8" t="s">
         <v>95</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -1721,11 +1723,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="2" t="s">
         <v>92</v>
       </c>
@@ -1770,7 +1772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>102</v>
       </c>
@@ -1790,7 +1792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>105</v>
       </c>
@@ -1849,7 +1851,7 @@
       <c r="F38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="6" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1872,7 +1874,7 @@
       <c r="F39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="8"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
@@ -1913,7 +1915,7 @@
       <c r="F41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="6" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1936,7 +1938,7 @@
       <c r="F42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="6" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1999,11 +2001,11 @@
       <c r="F45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
@@ -2062,11 +2064,11 @@
       <c r="F48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>144</v>
       </c>
@@ -2125,7 +2127,7 @@
       <c r="F51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="6" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2249,7 +2251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>171</v>
       </c>
@@ -2289,7 +2291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>177</v>
       </c>
@@ -2349,7 +2351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>186</v>
       </c>
@@ -2389,7 +2391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>192</v>
       </c>
@@ -2409,7 +2411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>195</v>
       </c>
@@ -2452,7 +2454,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>200</v>
       </c>
@@ -2514,16 +2516,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E28" r:id="rId1" display="https://aka.ms/ioteventgrid" xr:uid="{CB44FAD1-7389-4ADC-9B0D-B6676BC5F4A0}"/>

--- a/articles/iot-hub/iot-hub-metrics-table.xlsx
+++ b/articles/iot-hub/iot-hub-metrics-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\azure-docs-pr\articles\iot-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FB9B79-9A97-4820-8BC1-DFB597EBE10A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE49AF2-B23A-4C5B-9096-A6AA8818ABBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2865" yWindow="-15015" windowWidth="18225" windowHeight="11535" xr2:uid="{4D434432-2D31-4BF1-9354-EEB50D7CB4FE}"/>
+    <workbookView xWindow="45" yWindow="-15870" windowWidth="21360" windowHeight="13800" xr2:uid="{4D434432-2D31-4BF1-9354-EEB50D7CB4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="230">
   <si>
     <t>Metric</t>
   </si>
@@ -691,6 +691,36 @@
   </si>
   <si>
     <t>what is this?</t>
+  </si>
+  <si>
+    <t>ashita - confirm w/vishal whether this should only happen if fallback is disabled</t>
+  </si>
+  <si>
+    <t>ashita - what does "incompatibility" mean?</t>
+  </si>
+  <si>
+    <t>ashita - confirm this includes custom and built-in event hub</t>
+  </si>
+  <si>
+    <t>ashita- is this the default event hub endpoint or anything set up in routing *and* the default event hub?</t>
+  </si>
+  <si>
+    <t>delete 'telemetry' -- it's all messages</t>
+  </si>
+  <si>
+    <t>delete 'telemetry' -- can be anything</t>
+  </si>
+  <si>
+    <t>delete 'telemetry' -- can be anything -- ASHITA is this for a route to events or just a default or both?</t>
+  </si>
+  <si>
+    <t>for built-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashita, can you find out how I am supposed to see the [result] -- is it part of the info returned? </t>
+  </si>
+  <si>
+    <t>Ashita? Can you find out? And what the heck does "Dimensions" mean? "Should fields be documented in the Dimensions column"? And explain this to Robin please.</t>
   </si>
 </sst>
 </file>
@@ -751,7 +781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -775,8 +805,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1093,10 +1129,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7FFFD-ACC2-4C80-8CE9-66F756DD8860}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1107,9 +1146,10 @@
     <col min="5" max="5" width="35.796875" customWidth="1"/>
     <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.3984375" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>207</v>
       </c>
@@ -1187,7 +1227,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1207,7 +1247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1227,7 +1267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1247,7 +1287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1267,7 +1307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +1327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1307,7 +1347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="114" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -1327,7 +1367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1347,7 +1387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1369,8 +1409,11 @@
       <c r="G13" s="6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="H13" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -1392,8 +1435,11 @@
       <c r="G14" s="6" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="H14" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -1413,7 +1459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1432,8 +1478,11 @@
       <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="H16" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1455,8 +1504,11 @@
       <c r="G17" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="H17" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
@@ -1476,7 +1528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -1495,8 +1547,11 @@
       <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G19" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -1516,7 +1571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
@@ -1538,8 +1593,11 @@
       <c r="G21" s="6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="H21" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
@@ -1559,7 +1617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
@@ -1578,8 +1636,14 @@
       <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="G23" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
@@ -1599,7 +1663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
@@ -1618,8 +1682,11 @@
       <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="H25" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
@@ -1639,7 +1706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
@@ -1659,20 +1726,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="178.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:8" ht="178.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="C28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>89</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -1681,58 +1748,61 @@
       <c r="G28" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
+      <c r="H28" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="224.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:8" ht="224.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>95</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>96</v>
       </c>
@@ -1752,7 +1822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
@@ -1772,7 +1842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>102</v>
       </c>
@@ -1792,7 +1862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>105</v>
       </c>
@@ -1812,7 +1882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
@@ -1832,7 +1902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="114" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>111</v>
       </c>
@@ -1854,8 +1924,11 @@
       <c r="G38" s="6" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="H38" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>114</v>
       </c>
@@ -1876,7 +1949,7 @@
       </c>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -1896,7 +1969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="114" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
@@ -1919,7 +1992,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="114" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>123</v>
       </c>
@@ -1942,7 +2015,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>126</v>
       </c>
@@ -1962,7 +2035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>129</v>
       </c>
@@ -1982,7 +2055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="114" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>132</v>
       </c>
@@ -2005,7 +2078,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>135</v>
       </c>
@@ -2025,7 +2098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>138</v>
       </c>
@@ -2045,7 +2118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" ht="114" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>141</v>
       </c>
@@ -2516,16 +2589,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E28" r:id="rId1" display="https://aka.ms/ioteventgrid" xr:uid="{CB44FAD1-7389-4ADC-9B0D-B6676BC5F4A0}"/>

--- a/articles/iot-hub/iot-hub-metrics-table.xlsx
+++ b/articles/iot-hub/iot-hub-metrics-table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\azure-docs-pr\articles\iot-hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE49AF2-B23A-4C5B-9096-A6AA8818ABBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE86E46A-DC01-4819-8989-80F1E3BDFA6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-15870" windowWidth="21360" windowHeight="13800" xr2:uid="{4D434432-2D31-4BF1-9354-EEB50D7CB4FE}"/>
+    <workbookView xWindow="32025" yWindow="-14370" windowWidth="21360" windowHeight="13800" xr2:uid="{4D434432-2D31-4BF1-9354-EEB50D7CB4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="248">
   <si>
     <t>Metric</t>
   </si>
@@ -721,6 +721,60 @@
   </si>
   <si>
     <t>Ashita? Can you find out? And what the heck does "Dimensions" mean? "Should fields be documented in the Dimensions column"? And explain this to Robin please.</t>
+  </si>
+  <si>
+    <t>PER-ENDPOINT METRICS</t>
+  </si>
+  <si>
+    <t>Routing Delivery Attempts</t>
+  </si>
+  <si>
+    <t>ResourceID, Result, RoutingSource</t>
+  </si>
+  <si>
+    <t>RoutingDeliveryLatency  (P0)</t>
+  </si>
+  <si>
+    <t>Routing Latency</t>
+  </si>
+  <si>
+    <t>fill this in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fill this in </t>
+  </si>
+  <si>
+    <t>ResourceId, RoutingSource, EndpointType, EndpointName</t>
+  </si>
+  <si>
+    <t>Event Grid Latency</t>
+  </si>
+  <si>
+    <t>ResourceID, EventType</t>
+  </si>
+  <si>
+    <t>RoutingDataSizeInBytesDelivered</t>
+  </si>
+  <si>
+    <t>(added)</t>
+  </si>
+  <si>
+    <t>RoutingDataSizeInBytesDelivered (not sure whether to include) (P1)</t>
+  </si>
+  <si>
+    <t>RoutingDeliveries  (P0) (insert a separate column for d2c.*.egress ? )</t>
+  </si>
+  <si>
+    <t>EventGridDeliveries (P0-done)</t>
+  </si>
+  <si>
+    <t>EventGridLatency (P0-done)</t>
+  </si>
+  <si>
+    <t>Event Grid Deliveries</t>
+  </si>
+  <si>
+    <t>ResourceID, Result, EventType</t>
   </si>
 </sst>
 </file>
@@ -760,12 +814,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -781,38 +841,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1129,1462 +1203,1562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA7FFFD-ACC2-4C80-8CE9-66F756DD8860}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="35.796875" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="1" max="1" width="36.46484375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.9296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.06640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="40.06640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>207</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>209</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="114" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="F10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="F11" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="F16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="F18" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+      <c r="F20" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
+      <c r="F22" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A23" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="F23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="C24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+      <c r="F24" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="F25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+      <c r="F26" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="C27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="178.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="C28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="2" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="2" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="224.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="2" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="C33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="C34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
+      <c r="F34" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="C36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="C37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="114" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="6" t="s">
+      <c r="F38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="C39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
+      <c r="F39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="C40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="114" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="F41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="114" x14ac:dyDescent="0.45">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="6" t="s">
+      <c r="F42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="C43" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="C44" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="114" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="6" t="s">
+      <c r="F45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="C46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="C47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="114" x14ac:dyDescent="0.45">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="6" t="s">
+      <c r="F48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="C49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="C50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="114" x14ac:dyDescent="0.45">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="6" t="s">
+      <c r="F51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="57" x14ac:dyDescent="0.45">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A52" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="C52" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="57" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
+      <c r="F52" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A53" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="C53" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A54" s="2" t="s">
+      <c r="F53" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A54" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="C54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
+      <c r="F54" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A55" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="C55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="C56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="C57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A58" s="2" t="s">
+      <c r="F57" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A58" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="C58" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="C59" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="2" t="s">
+      <c r="F59" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A60" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="C60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="C61" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="C62" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="2" t="s">
+      <c r="F62" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="C63" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="C64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A65" s="2" t="s">
+      <c r="F64" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="C65" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="2" t="s">
+      <c r="F65" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A66" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="D66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="D67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A68" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="C68" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="C69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A70" s="2" t="s">
+      <c r="F69" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="C70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A76" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A77" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A78" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
